--- a/config/forms/app/new.xlsx
+++ b/config/forms/app/new.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -45,7 +45,7 @@
     <t>inputs</t>
   </si>
   <si>
-    <t xml:space="preserve"> New Task Form</t>
+    <t>NO_LABEL</t>
   </si>
   <si>
     <t>./source = 'user'</t>
@@ -60,9 +60,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
     <t>source_id</t>
   </si>
   <si>
@@ -177,7 +174,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve"> New Task Form v1</t>
+    <t>Set a Task Reminder</t>
   </si>
   <si>
     <t>new</t>
@@ -602,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -615,10 +612,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -631,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -642,29 +639,29 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -674,13 +671,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -690,13 +687,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -706,13 +703,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -725,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -739,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -750,13 +747,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -766,13 +763,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -782,7 +779,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -792,7 +789,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -802,7 +799,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -812,7 +809,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -822,34 +819,34 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -857,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -890,18 +887,18 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="4" t="b">
         <v>1</v>
@@ -928,24 +925,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H24" s="3" t="b">
         <v>1</v>
@@ -953,18 +950,18 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -995,50 +992,53 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="13" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-07-06_17-11</v>
+        <v>2022-07-25_16-36</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
